--- a/report_ca_nhan/SÓC TRĂNG/NV-26 Trần Khánh Hiệp 7-2024.xlsx
+++ b/report_ca_nhan/SÓC TRĂNG/NV-26 Trần Khánh Hiệp 7-2024.xlsx
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>490000</v>
+        <v>630000</v>
       </c>
     </row>
     <row r="4">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2060000</v>
+        <v>2648571.428571429</v>
       </c>
     </row>
     <row r="21">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1550000</v>
+        <v>2278571.428571429</v>
       </c>
     </row>
     <row r="31">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1550000</v>
+        <v>2278571.428571429</v>
       </c>
     </row>
   </sheetData>
